--- a/500all/speech_level/speeches_CHRG-114hhrg98598.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98598.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="439">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Whitfield</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Whitfield. I would like to call the hearing to order this morning, and the subject, of course, is the hearing on EPA's CO&lt;INF&gt;2&lt;/INF&gt; Regulations for New and Existing Power Plants. And then, of course, also you all have a proposed rule that is part of this relating to a Federal Implementation Plan in the event States do not act.    And, first of all, Ms. McCabe, we appreciate your being with us this morning as the Acting Assistant Administrator. You've been here many times before, and we genuinely appreciate your being here.    At this time, I would recognize myself for 5 minutes for an opening statement.    Not too many years ago, an autobiography was compiled of Harry Truman and it was entitled, ``Plain Speaking,'' and that's what I intend to do with my opening statement today, just do some plain speaking.    In July, the United States Supreme Court ruled in the Michigan Case that the EPA had acted unreasonably and beyond its scope of authority on Utility MACT by not considering cost. And I was really taken back a little bit by the response that Ms. McCarthy and other spokesmen for EPA gave when they were questioned about that Supreme Court decision.    Basically, every one of them said the regulation was finalized 3 years ago, the companies have already spent the money, so everything has been accomplished, and so basically sort of negating any emphasis on the Supreme Court's decision. And we perceive that that's precisely what is going to happen with this existing and new coal plant rule, that your goal is to have this implemented. Lawsuits we know are going to be filed, but you want to have it implemented so that if the Supreme Court rules against you, everything has already been done.    Now, on the new coal plant rule we have serious problems with it. You know that. Initially, you gave as an example four plants that showed that carbon capture sequestration could be used in these coal plants. One was in Texas, which has not been built; one was in California, which has not been built; one was in Mississippi, which has had extensive cost overruns and without significant investment from the Federal Government never would have been built; and then you've got the Canadian plant, which is really a unit, 110 megawatts. It costs over $1 billion a year. So, there's not any practical way available for anyone using reasonable cost figures to comply with this new rule, because the emission standard is so low that it simply cannot be achieved.    And then on the existing coal plant rule you all talk frequently about oh, we're flexible, and we're maximum flexibility to the States, but you arbitrarily set the CO&lt;INF&gt;2&lt;/INF&gt; emission caps for every State, so it's going to be extremely difficult for many of the States to reach these caps.    Now, when I go down to the District in Kentucky and around the country, I hear a lot about this is a rogue agency out to do in the fossil fuel industry. Many people view you as nothing but a political arm of the White House today, as a result of the President's Georgetown speech in which he said, ``I want EPA to act.'' And you all have followed that rule and you've acted. You've actually become a legislative arm, because Congress considered cap and trade, Congress considered CO&lt;INF&gt;2&lt;/INF&gt; emissions, and Congress did not act. And I've heard people at EPA and the President say repeatedly, ``Congress did not act, so we are going to act.''    And not only did the Supreme Court invalidate our question and call it unreasonable and acting beyond your scope of authority under the Michigan Case, but also in the Tailoring Rule. It said you went beyond your scope of authority. And then on this existing rule, how can we ever forget that one of the preeminent constitutional lawyers in the country, Larry Tribe, sat right there and said, ``You're burning the Constitution'' by these actions. And you had to reverse about 30 years of legal opinions of EPA itself in order to say you have the authority to act under 111(d).    So, we are very much concerned about your running roughshod over the U.S. House of Representatives, U.S. Senate, the Governors, the attorney generals, the utilities, the people in the fossil fuel industry, the employees, and the American taxpayers. And it's interesting, the EIA recently reported 2014 electricity rates went up 14 percent, and this year they anticipate them going up another 10 percent, but coal prices are down, natural gas prices are down, and oil prices are down. And, yet, all these independent reports say they're going up because of regulations. So, this committee, we're going to continue to do everything we can do to stop you. And not only that, but we're urging Governors to take action to stop you. And we know that lawsuits are going to continue to be filed, and this will be a big issue in 2016.    [The prepared statement of Mr. Whitfield follows:)                Prepared statement of Hon. Ed Whitfield    This subcommittee has been examining EPA's carbon dioxide regulations for new and existing power plants since they were first proposed. Last August, EPA announced the final versions, and unfortunately none of the fundamental concerns we've raised appear to have been addressed. This EPA has become the political arm of the White House issuing regulations by fiat. It is time to stop and review what these rules mean for the Nation's electricity system and the economy overall. I welcome Acting Assistant Administrator Janet McCabe to this subcommittee.    The new and existing source provisions are the most significant part of the President's Climate Action Plan, and they closely resemble the 2009 Waxman-Markey cap-and-trade bill in that they comprehensively control the electric sector well beyond the fence line of regulated power plants, and they threaten extraordinary costs yet will do almost nothing to reduce the earth's temperature. I believe that the regulatory version of cap and trade is every bit as inflexible and unworkable as the legislative version that I voted against.    Our Ratepayer Protection Act addressed two major concerns with the existing source rule--its legality and its impact on ratepayers. First, the bill would have extended the compliance deadlines so that the rule's provisions would not take effect until after judicial review is complete. On this point, I am disappointed that EPA has not learned the lesson from its Mercury MACT rule, which the Supreme Court recently found to be legally flawed. This decision came too late to avoid serious economic damage, including the irreversible decision to close several coal-fired power plants in response to this rule. As with the Mercury MACT rule, the existing source rule's aggressive deadlines would necessitate potentially costly compliance measures before we know whether the rule will survive judicial scrutiny. And I might add that there are many reasons to question the legality of this unprecedented measure.    The Ratepayer Protection Act also gave State Governors the authority to waive the existing source rule's provisions if they are determined to have a significant adverse effect either on ratepayers or on reliability. According to an analysis of the proposed rule by NERA, fully 43 States will experience double digit increases in electricity prices--and this is on top of rates that are already increasing due in part to other EPA regulations. Higher electric bills disproportionately hurt low income households and those on fixed incomes.    On reliability, NERC and others with expertise on reliability have warned of the potential adverse impact of the existing source provisions. The final rule may be even more problematic than the proposed version, especially now that EPA has chosen to discourage new natural gas facilities as well as coal in favor of less-reliable renewables like wind and solar.    Few if any of the concerns about the proposed existing source rule were addressed in the final version, and the reasons for the Ratepayer Protection Act are still applicable. And I might add that the new source rule also remains very problematic, as it will serve as a de facto ban on new coal generation. Today, with natural gas as cheap as it is, a ban on new coal may not seem so damaging, but circumstances may change, and I believe the Nation will suffer future adverse consequences from not having new coal generation as an option.    In addition to the new and existing source final rules, I also have serious concerns with EPA's proposed ``Federal Plan,'' which would impose a Federal emissions trading program on any State that does not get its own plan approved. Again, I welcome Acting Administrator McCabe and look forward to learning more about all three rules.</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>400308</t>
   </si>
   <si>
-    <t>Frank Pallone, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman.    I applaud EPA's efforts to finalize the Clean Power Plan, which is an historic and important step in our ongoing battle against the threat of unchecked climate change.    According to NOAA, 2014 was the warmest year ever recorded, and 9 of the 10 hottest years have occurred since 2000. In fact, this past summer was the hottest on record, and 2015 is well on its way to surpassing last year's record. Every corner of the earth is going to be affected.    Representing a coastal area that saw firsthand the damage done by Superstorm Sandy, I'm particular concerned about extreme weather events and sea level rise. We're already experiencing warmer and more frequent hot days, more frequent and heavier rainstorms, drier and longer droughts, and more extreme high sea levels. In the past week, North and South Carolina saw unprecedented levels of rain, 16 people have died, and early reports estimate billions of dollars in damage. And, sadly, extreme weather like this has become the new norm.    As President Obama recently said and I quote, ``Climate change is no longer some far off problem. It's happening here, it's happening now. We cannot wait for some future generation to take action.'' To that end, EPA finalized a workable plan to reduce carbon emissions from power plants which are the largest uncontrolled source of manmade greenhouse gases in the U.S.    Overall, EPA engaged in an unprecedented level of outreach and public engagement on the Clean Power Plan. The final rule reflects extensive stakeholder input, including over 4.3 million public comments, a series of listening sessions held across the country, and scores of meetings with stakeholders across the spectrum.    As a result of the comments received on the proposal, EPA made a number of changes to the final Clean Power Plan to insure flexibility, affordability, reliability, and investment in clean energy technologies. And the Clean Power Plan is not a one-size-fits-all proposal for reducing emissions. It uses a flexible State-based approach that takes account of each individual State's unique capacity to reduce emissions from its electricity sector. And in the final rule, EPA made changes to the plan's building blocks to provide more flexibility for States when determining the best way to achieve their individual goals, while still providing compliance options and ample opportunity for the use of energy efficiency to reduce carbon pollution from power plants.    Now, EPA is not proposing the States act overnight. States have until 2030 to meet their final goals, and the plan's interim goals don't begin until 2022. Further, the final rule provides additional flexibility for States to determine their own individual compliance pathway. And EPA is encouraging States to make early emission reductions by creating a Clean Energy Incentive Program that will reward early investments in wind and solar generation, as well as demand-side energy efficiency programs implemented in low-income communities.    Ultimately, the Clean Power Plan represents a serious commitment to climate action, and will result in climate benefits of $20 billion, and health benefits of $14-34 billion. Increased levels of carbon dioxide in our atmosphere are threatening the health and well-being of all Americans, and this plan will protect public health by avoiding 3,600 premature deaths, 1,700 heart attacks, and 90,000 asthma attacks each year.    Let's not heed the absurd arguments on behalf of companies that profit from the status quo. We've already heard from some that EPA's plan is not legal, that it's unworkable, and that some States may refuse to participate, but as I've said before, those making such arguments aren't really interested in finding solutions to our carbon pollution problem. They're not interested in developing a plan to help us reduce emissions while still maintaining a safe, reasonably priced electricity system.    They're more than welcome to ignore the facts and reject any reasonable plan to address climate change, but let me tell you, history will not treat them kindly. History is on the side of those who want to act on climate change, those who believe in the power of American innovation, and our ability to successfully meet any challenge, and to look to the future rather than the past.    Frankly, we've already wasted enough time on legislation to just say no to climate action, and now Congress must move on. What we cannot do, as President Obama said, and I'll close, and I quote. He said is, ``We cannot condemn our children to a planet beyond their capacity to repair.''    I yield back, Mr. Chairman.    [The prepared statement of Mr. Pallone follows:)             Prepared statement of Hon. Frank Pallone, Jr.    Thank you, Mr. Chairman. I applaud EPA's efforts to finalize the Clean Power Plan, which is a historic and important step in our ongoing battle against the threat of unchecked climate change.    According to NOAA, 2014 was the warmest year ever recorded, and 9 of the 10 hottest years have occurred since 2000. In fact, this past summer was the hottest on record, and 2015 is well on its way to surpassing last year's record.    Every corner of the Earth is going to be affected, but, representing a coastal area that saw firsthand the damage done by Superstorm Sandy, I am particularly concerned about extreme weather events and sea level rise.    We are already experiencing warmer and more frequent hot days, more frequent and heavier rainstorms, drier and longer droughts, and more extreme high sea levels. In the past week, North and South Carolina saw unprecedented levels of rain. Sixteen people have died, and billions of dollars of damage has occurred. Sadly, extreme weather like this has become the new norm.    As President Obama recently said: ``Climate change is no longer some far-off problem; it is happening here, it is happening now.'' We cannot wait for some future generation to take action.    To that end, EPA finalized a workable plan to reduce carbon emissions from power plants, which are the largest uncontrolled source of man-made greenhouse gases in the U.S.    Overall, EPA engaged in an unprecedented level of outreach and public engagement on the Clean Power Plan. The final rule reflects extensive stakeholder input, including over 4.3 million public comments, a series of listening sessions held across the country and scores of meetings with stakeholders across the spectrum.    As a result of the comments received on the proposal, EPA made a number of changes to the final Clean Power Plan, to ensure flexibility, affordability, reliability, and investment in clean energy technologies.    The Clean Power Plan is not a one-size-fits-all proposal for reducing emissions. It uses a flexible, State-based approach that takes account of each individual State's unique capacity to reduce emissions from its electricity sector. And in the final rule, EPA made changes to the plan's ``building blocks'' to provide more flexibility for States when determining the best way to achieve their individual goals, while still providing compliance options and ample opportunity for the use energy efficiency to reduce carbon pollution from power plants.    EPA is not proposing that States act overnight--States have until 2030 to meet their final goals and the plan's interim goals don't begin until 2022. Further, the final rule provides additional flexibility for States to determine their own individual compliance pathway.    And EPA is encouraging States to make early emissions reductions by creating a Clean Energy Incentive Program that will reward early investments in wind and solar generation, as well as demand-side energy efficiency programs implemented in low-income communities.    Ultimately, the Clean Power Plan represents a serious commitment to climate action and will result in climate benefits of $20 billion and health benefits of $14-$34 billion. Increased levels of carbon dioxide in our atmosphere are threatening the health and well-being of all Americans--and this plan will protect public health by avoiding 3,600 premature deaths, 1,700 heart attacks, and 90,000 asthma attacks each year.    Let us not heed the absurd arguments on behalf of companies that profit from the status quo. We have already heard from some that EPA's plan is not legal, that it is unworkable, and that some States may refuse to participate.    As I've said before, those making such arguments aren't really interested in finding solutions to our carbon pollution problem. They aren't interested in developing a plan to help us reduce emissions while still maintaining a safe, reasonably priced electricity system. They are more than welcome to ignore the facts and reject any reasonable plan to address climate change, but history will not treat them kindly. History is on the side of those who want to act on climate change; those who believe in the power of American innovation and our ability to successfully meet any challenge, and who look to the future rather than the past.    Frankly, we have already wasted enough time on legislation to ``just say no'' to climate action, and now Congress must move on. What we cannot do, as President Obama said, is ``condemn our children to a planet beyond their capacity to repair.''    Thank you.</t>
   </si>
   <si>
@@ -79,27 +73,18 @@
     <t>412485</t>
   </si>
   <si>
-    <t>H. Morgan Griffith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Griffith. Thank you very much, Mr. Chairman.    You know, it's interesting. To assist States in developing State plans, the EPA has proposed model trading rules. Let me read you from pages 42 and 43 of your proposed rule setting forth a Federal plan. EPA states, ``The EPA strongly urges States to consider adopting one of the model trading rules which are designed to be referenced by States in their rulemaking. Use of the model trading rules by States would help insure consistency between and among the State programs which is useful for potential operation of a broad trading program that spans multi-State regions or operates on a national scale.''    Now, what's interesting about that is, I'm also going to reference some quotes from the past, and not the distant past, the recent past. ``There is no cap-and-trade scheme provided for under the Clean Air Act. For greenhouses gases, I should say, sir, what I do know is what--is that we are not planning any cap-and-trade regulations or standards.'' Former Administrator Lisa Jackson in response to Representative Steve Scalise, February 9, 2011, in this room.    Administrator Jackson and Assistant Administrator McCarthy have stated publicly, ``The agency has no intention of pursuing a cap-and-trade program for greenhouse gases under the Clean Air Act. The agency reaffirms those statements here.'' August 3rd, 2011.    ``Both former Administrator Jackson and I have said in the past that the EPA has no intention of pursuing a cap-and-trade program for greenhouse gases, and I continue to stand by those statements.'' May 15, 2013 in a letter to Chairman Upton.    ``The Clean Power Plan is not a cap-and-trade program. It's not going to be designed like a cap-and-trade program. This is not an opportunity for us to impose a cap. That's not what it looks like.'' Administrator Gina McCarthy in response to Senator Heitkamp on March 14 in a panel in the video.    You know, the problem is, is that it looks like a cap-and-trade program. You call it a model trading plan. You say that if the States don't come up with an appropriate plan, the Federal Government will come in and help them develop a plan; perhaps a cap-and-trade-type plan.    I was elected in 2010. A 28-year incumbent went down because he voted for a cap-and-trade plan. You're not only showing disrespect to the Congress, disrespect to what I believe the Supreme Court told you in the Mercury Rule. You're also showing disrespect to the voters of this country that turned down an awful lot of folks. Cap and trade is not a policy this United States should follow, and so I would submit to you that you probably need to look someplace else. I don't think you have legal authority for this rule, as you know. That will be debated in the courts, but just like the Mercury Rule--which was found that you all had overreached and had to go back to the drawing board--those jobs in my district are already gone before the Supreme Court could make a ruling.    With that, Mr. Chairman, I would yield to the gentleman from West Virginia, Mr. McKinley.</t>
   </si>
   <si>
     <t>412487</t>
   </si>
   <si>
-    <t>David B. McKinley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McKinley. Thank you.    Mr. Chairman, I had the opportunity on Friday to take Congressman Welch from Vermont to an underground coal mine in West Virginia, and prior to that going underground we had a chance to sit down and talk with about 12 unemployed coal miners that have lost their job, and to look them in the eye to understand what can we do? What's happened? And, universally, Ms. McCabe, universally they said it's regulations. Regulations are what--we have had seven power plants in West Virginia here have been shut down, 45 percent of our coal miner workforce has been unemployed. And they were saying watch the regulations, so I just want to share with you, here is this list that's 20-some pages long--feet long of over 1,500 regulations that have been imposed under this administration on coal mines, and coal companies, and coal miners.    It's no wonder they can't find jobs. They're willing to go someplace else, but they can't sell their home. They're living in communities of 1,000 people and they'll go to another place to work someplace else, but they can't sell their home. That's their equity.    This administration has taken us in West Virginia from the fifth-best unemployment rate to the 51st unemployment rate in the Nation because of these 1,500 regulations. I think it's got to stop, and for anyone to testify before us and say this is fair, look them in the eye. Look them in the eye, that coal miner, and say it's fair that you just lost your job because of our regulations. I don't think that you can do that.    I yield back my time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. The gentleman yields back, and that concludes the opening statements.    So, Ms. McCabe, at this time you're recognized for 5 minutes for your opening statement. Thank you.  STATEMENT OF JANET McCABE, ACTING ASSISTANT ADMINISTRATOR, </t>
   </si>
   <si>
-    <t>McCabe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. McCabe. Thank you very much, Chairman Whitfield, Ranking Member Rush, and members of the subcommittee. I really appreciate the opportunity to testify before you today on EPA's Carbon Pollution Regulations for New and Existing Power Plants.    My testimony will focus mostly on the regulations for existing plants, also known as the Clean Power Plan. On August 3rd, President Obama and EPA Administrator Gina McCarthy announced the final Clean Power Plan, a historic and important step in reducing carbon pollution from power plants that takes concrete action to address climate change, as well as final standards limiting carbon pollution from new, modified, and reconstructed power plants, and a proposal for a Federal plan and model rules that demonstrate clear options for how States can implement the Clean Power Plan in ways that maximize flexibility for power plants in achieving their carbon pollution obligations.    Shaped by a process of unprecedented outreach and public engagement that is still ongoing, the final Clean Power Plan is fair, flexible, and designed to strengthen the fast-growing trend toward cleaner and lower polluting American energy. It sets strong but achievable standards for power plants and reasonable goals for States to meet in cutting the carbon pollution that is driving climate change tailored to their specific mix of sources. It also shows the world that the United States is committed to leading global efforts to address climate change.    The final Clean Power Plan mirrors the way electricity already moves across the grid in this country. It sets standards that are fair and consistent across the country and that are based on what States and utilities are already doing to reduce CO&lt;INF&gt;2&lt;/INF&gt; from power plants. And it gives States and utilities the time and a broad range of options they need to adopt strategies that work for them.    These features of the final rule along with tools like interstate trading and emissions averaging mean that States and power plants can achieve the standards while maintaining an ample and reliable electricity supply and keeping power affordable.    When the Clean Power Plan is fully in place in 2030, carbon pollution from the power sector will be 32 percent 2005 levels, and the transition to cleaner methods of generating electricity will better protect Americans from other harmful air pollution, too, meaning we will avoid thousands of premature deaths and suffer thousands fewer asthma attacks and hospitalizations in 2030 and every year beyond.    States and utilities told us they needed more time than the proposal gave them, and we responded. In the final rule, the compliance period does not start until 2022, the interim reductions are more gradual, States can determine their own glide path and any State can get up to 3 years to submit a plan.    We heard the concerns about reliability. We listened, and we consulted with the planning and reliability authorities, with FERC and the Department of Energy. The final Clean Power Plan reflects this input, and it includes several elements to assure that the plan requirements will not compromise system reliability. In addition, to provide an extra incentive for States to move forward with plan investments we're creating a Clean Energy Incentive Program that will recognize early progress.    Since issuing the final Clean Power Plan, EPA has continued to engage with States, territories, tribes, utilities, industry groups, community organizations, health and environmental groups, and others. To help States and stakeholders understand the Clean Power Plan and to further support States' efforts to create plans that suit their needs, EPA has developed a variety of tools and resources which are largely available on our Web site, and we remain committed to assisting States with development and implementation of their State plans.    We're convinced both by our analyses and our experiences that both the carbon pollution reduction called for under the Clean Power Plan will extend the trajectory of the last 40 years when we cut air pollution in this country by 70 percent while our economy has tripled.    I, again, thank the committee for inviting me to speak on the Agency's work to implement our Nation's environmental laws to protect public health and the environment, and I look forward to your questions.</t>
   </si>
   <si>
@@ -235,9 +220,6 @@
     <t>400018</t>
   </si>
   <si>
-    <t>Joe Barton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Barton. Thank you, Mr. Chairman. It's good to have you here, Ms. McCabe. We appreciate your courtesy of coming to talk to us.    I think it's a true statement that back in 1990 when we passed the Clean Air Act amendments, Chairman Upton and myself were the only two members of the committee currently that were also on the committee then. I don't think any of the senior Democrats were on the committee at that time, but if they were, I apologize. In any event, the full committee chairman was John Dingell of Michigan. He spent several years putting together the coalition of which I was a small part to move that bill through this committee, and through the Congress.    My recollection is that we spent an inordinate amount of time working on the acid rain title which implemented a nationwide emissions trading program for SO2. There were numerous stakeholder meetings. I remember going to the White House to meet with President Bush and Governor Sununu. I remember numerous Congressional hearings. I mean, we spent a lot of time on that.    We spent no time on section 111(d) of the Clean Air Act, none. Do you have any records at EPA that indicate the Congress spent, I mean, any public time at all on this minor provision?</t>
   </si>
   <si>
@@ -307,9 +289,6 @@
     <t>412302</t>
   </si>
   <si>
-    <t>Pete Olson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Olson. I thank the Chair.    I know all of us have former Chairman Dingell in our prayers. He is in the hospital with a heart issue, but he'll be fine. He was quoted in the paper yesterday saying, ``Being old sucks.'' But please lift him up in your prayers.    My first question, Ms. McCabe, is when fully rolling, EPA wants existing coal plants to hit a standard of 1,305 pounds of CO&lt;INF&gt;2&lt;/INF&gt; per megawatt hour. That is pretty aggressive. It's a nightmare for some States, and expensive for rate payers. But here's what I find more stunning: Your standard for new plants is 1,400 pounds per megawatt hour. In other words, your new rule says existing coal plants have to be even cleaner than a brand new one.    People I've talked to back home said they've never seen this. They know that it's harder and more expensive to retrofit a plant than to build a new one from scratch with the best controls.    Don't you agree that it's unusual to make these rules tougher for existing plants than new ones? Has EPA ever thought it's oK for newer to be dirtier?</t>
   </si>
   <si>
@@ -346,9 +325,6 @@
     <t>412189</t>
   </si>
   <si>
-    <t>Jerry McNerney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McNerney. Thank you, Mr. Chairman. Mr. Chairman, I ask--actually, I implore my Republican colleagues to embrace carbon sequestration. I do this every time I get a chance to talk about it. The atmosphere is not a garbage dump, especially in the United States we need to be responsible for what we're putting into the air.    Now, we repeatedly have heard this morning about the manifestations of climate change. These are real, they're getting more severe. Soon enough these impacts are going to be severe enough that the public will demand that high carbon emitters such as coal-fired power plants be shut down, so ignoring the carbon emission problem until that day will condemn the coal industry to extinction. For your own sake, especially if you're a coal mine Republican, please embrace carbon sequestration.    Ms. McCabe, in California we've made significant strides toward increasing our use of renewable energies and cutting our greenhouse gas emissions. California passed legislation to reduce greenhouse gas emissions to 1990 levels by the year 2020, and Governor Brown recently set a goal of an additional 40 percent reduction in greenhouse gas emissions by the year 2030. So, when writing the Clean Power Plan, did the EPA look at early State actions as a model, as a potential model?</t>
   </si>
   <si>
@@ -397,9 +373,6 @@
     <t>400373</t>
   </si>
   <si>
-    <t>John Shimkus</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Shimkus. Thank you, Mr. Chairman.    Ms. McCabe, one way to measure the impact of your rule is to look at what is expected energy mix would be without the rule using what is called a reference or base case, and then what the projected energy mix would be with the rule. Do you agree?</t>
   </si>
   <si>
@@ -499,9 +472,6 @@
     <t>400062</t>
   </si>
   <si>
-    <t>Lois Capps</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Capps. Thank you, Mr. Chairman, for holding this hearing. Ms. McCabe, thank you very much for your testimony.    Adapting to and mitigating climate change should be front and center in our discussions at every level of society and Government. As representatives who should be advocating for the best interests of our constituents and future constituents, we should be jumping at the chance to pursue avenues to protect their health and well-being, and to insure that we provide a safe and vibrant world to live in. Fortunately, we seem to be having the same discussion over and over again mired in the same shortsighted rhetoric.    So my first question, we've heard the majority repeatedly claim that the Clean Power Plan will harm rate payers, and particularly disadvantaged and low-income individuals; however, both the EPA and independent organizations have demonstrated that increase use of renewables and energy efficiency will over time lead to significant decreases in the cost of electricity for American families. Could you elaborate on how the Clean Power Plan will impact cost to rate payers over the short, but also particularly over the long term?</t>
   </si>
   <si>
@@ -574,9 +544,6 @@
     <t>400114</t>
   </si>
   <si>
-    <t>Michael F. Doyle</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Doyle. Thank you, Mr. Chairman.    Administrator McCabe, when you appeared before this committee for previous hearings on the proposed rule, I had voiced my concern that only 6 percent of existing nuclear power in States would be counted towards developing a State's goal, while 100 percent of existing renewable power was credited. Now, in the final rule credits for both of those are gone. However, I understand that States will have the option to choose mass-based goal for compliance that would insure that we value all existing zero carbon resources within a State similarly. Is that correct?</t>
   </si>
   <si>
@@ -646,9 +613,6 @@
     <t>412256</t>
   </si>
   <si>
-    <t>Robert E. Latta</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Latta. Thanks, Mr. Chairman, and Administrator, thanks very much for being with us today.    Under 111(d) the States must file a State plan by September the 6th, 2016 unless it submits an extension request that is approved by the EPA. EPA has said that, ``This approval of State extension requests is a ministerial action.'' Before rejecting a State's extension request will EPA allow for public notice and comment?</t>
   </si>
   <si>
@@ -742,9 +706,6 @@
     <t>412195</t>
   </si>
   <si>
-    <t>Kathy Castor</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Castor. Well, thank you, Mr. Chairman, for calling this hearing on the Clean Air Act and the Clean Power Plan.    The Clean Air Act is one of America's bedrock environmental protection laws, and it has been for over 40 years. I believe the Clean Air Act reflects our values. We value the air that we breathe, we are willing here in America to tackle significant environmental threats, and to tackle these threats EPA uses the best science, public input, examines health impacts. And what we understand here in 2015 is that we've got to tackle one of the most critical modern challenges yet, the changing climate, and the very costly impacts of the changing climate.    I believe EPA has developed a flexible carbon pollution reduction plan that is good for consumers, it's good the environment, it's good for the public health, and it will be good for our economy. And I think, Ms. McCabe, that EPA is right to encourage and spur States to meet the challenges, and the rising costs of the changing climate.    Coming from the State of Florida, these costs are daunting looking ahead. You've detailed some of them relating to public health, but what I see on the horizon if we do not act: increases in property insurance in Florida, flood insurance--boy, that's really hitting home now, watching what's happening in South Carolina.    I was a county commissioner before I came to Congress. Storm water fees, the ability of local governments, what they're going to have to do to replace storm water and waste water facilities, beach renourishment costs are going to increase.    Another cost unless we act will be the failure to tap into these clean energy jobs and innovation. And I noticed in the Clean Power Plan you have--EPA has included a Clean Energy Incentive Program to reward early investments in renewable energy generation, specifically solar and wind during 2020-2021. Now, coming from Florida where we have huge potential for solar projects like other States do, I'm excited about what a program like this could mean for my State. Could you please elaborate on that initiative?</t>
   </si>
   <si>
@@ -766,9 +727,6 @@
     <t>412431</t>
   </si>
   <si>
-    <t>Mike Pompeo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pompeo. Thank you, Mr. Chairman.    I want to get to the substance of this rule, but it's difficult to do if we can't expect the witness to fulfill commitments that they've made to this committee. In June of last year when you testified, I asked you a question, I asked you a question about how many times you and EPA had spoken with Mr. Podesta, who is now the chairman of the Hillary Clinton for President campaign. I asked you that question, you said you'd take it back and you'd get us an answer. We submitted a formal QFR asking you about meetings with the White House, and we got a letter back that said we had a lot of meetings, that we met with thousands of people. Ms. McCabe, how many times did you meet with Mr. Podesta?</t>
   </si>
   <si>
@@ -871,9 +829,6 @@
     <t>412209</t>
   </si>
   <si>
-    <t>David Loebsack</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Loebsack. Thank you, Mr. Chair. First, I do want to thank Administrator McCabe for testifying here today.    I may not take up the whole 5 minutes. I want to focus on the 2012 date that was already mentioned and go to my home State, Ms. McCabe. You know that over 28 percent of our electricity in Iowa is generated by wind power. We're the leader in the country. And I applaud the EPA, of course, for working to cut America's carbon pollution. I think it's a great idea, and we've got to move our energy and environmental policy into the 21st century. But in my State we've made a hell of a lot of progress over the years, and I just--I have a concern that starting this 2012, doesn't really recognize what States like Iowa have already done. Can you talk to me about that, you know? I mean, it's really difficult, you know, to sort of start it at a particular point when a place like Iowa has made so much progress, and then a number gets attached after 2012, and it just didn't seem to honor the commitment that folks in Iowa have already made up to this point.</t>
   </si>
   <si>
@@ -946,9 +901,6 @@
     <t>400160</t>
   </si>
   <si>
-    <t>Gene Green</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Green. Yes.</t>
   </si>
   <si>
@@ -1006,9 +958,6 @@
     <t>412480</t>
   </si>
   <si>
-    <t>Bill Flores</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Flores. Thank you, Mr. Chairman. I appreciate the opportunity to have this important hearing today. Thank you for being here, Ms. McCabe.    States have to file, if they want an extension to produce plan, they've got to file before 2016. Correct?</t>
   </si>
   <si>
@@ -1117,9 +1066,6 @@
     <t>412319</t>
   </si>
   <si>
-    <t>Paul Tonko</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Tonko. Thank you, Mr. Chair. And thank you, Assistant Administrator McCabe, for joining us today. Thank you for your patience and your responses, which are very much governed by civility, so I appreciate that.    The Clean Power Plan has the goal of reducing carbon emissions by 32 percent below 2005 levels by 2030. States will have 15 years to achieve those goals under this plan. This is definitely achievable, in my opinion. New York's experience demonstrates that it, indeed, is possible. Since 2005, New York and the other States participating in the Regional Greenhouse Gas Initiative, or REGGI, have seen a decrease in carbon emissions of more than 45 percent. And we have not sacrificed economic growth or reliability to achieve those given reductions. And according to several reports done by an independent group, New York's auction proceeds generated over $1 billion in savings for New Yorkers, so this can be done. So, I look at a charge of 32 percent over 15 years, and look at a record achieved of 45 percent over 10 years in contrast.    Ms. McCabe, one of the current statements the opposition to the Clean Power Plan is making is that the rule mandates an emissions trading scheme. As I read it, there is no mandate to use emissions trading as the way to meet the standard. Is that correct?</t>
   </si>
   <si>
@@ -1156,9 +1102,6 @@
     <t>412460</t>
   </si>
   <si>
-    <t>Bill Johnson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman.    Assistant Administrator McCabe, I'm incensed and I think the American people are incensed, and I'm certain that the people that I represent in Eastern and Southeastern Ohio are incensed at the logic that's being used by the EPA as it addresses the concerns around employment. The logic that seems to be applied to coal regions of the country where we've got communities of 1,000, 1,500 people that are all coal miners, and such, that they can just plant seeds like a seasonal garden and all of a sudden industries and new job opportunities might crop up. The logic that the EPA is using in their rationale, I certainly understand it because every time a new Government regulation by the EPA comes out, new offices are stood up, employees are hired, and the Washington bureaucracy grows ad nauseam. It happens like that at the expense of the American taxpayer.    I'm concerned about that, and if you look at page 47 of the Clean Power Plan, and the heading that reads, ``Addressing Employment Concern,'' on page 47 your agency states, ``The EPA encourages States in designing their State plans to consider the effect of their plans on employment and overall economic development to assure that the opportunities for economic growth and jobs that the plans offer are realized. To the extent possible, States should try to assure that communities that can be expected to experience job losses can also take advantage of the opportunities for job growth or otherwise transition to healthy, sustainable economic growth.''    You're obviously not familiar with Appalachia, Ohio, and rural America, and how these rules will affect places like that. So, I'm trying to understand what you mean by economic development. You're asking States to prematurely retire and replace existing plants with new energy infrastructure, and then claim this as a net benefit for jobs and economic growth. This is like breaking a window and then claiming the spending on the replacing of that window as a net benefit. So, what would the EPA do if a State chooses to show it could use the funds that the EPA wants it to spend on replacing perfectly good and reliable energy infrastructure by putting those funds toward a more productive economic use?</t>
   </si>
   <si>
@@ -1198,9 +1141,6 @@
     <t>412239</t>
   </si>
   <si>
-    <t>Peter Welch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Welch. Well, I want to in a way take up where Mr. Johnson was speaking. I had a chance to go to West Virginia and go into a coal mine with Mr. McKinley, and I'll tell you, it was a really powerful experience. Those folks work hard, as you know, and we don't have coal in Vermont, but we have electricity, and those coal miners, many from the UMW, they kept the lights on for us, kept our farms humming, kept the factories going. And there is dislocation. It happens to be the case that I am a strong supporter of efforts to clean our air and to move away from fossil fuels, but that trip really brought home to me that there is an impact on real people who are proud, who are hard-working, who approach things in a patriotic and team-oriented way, and are doing good work.    And what I think this whole committee has to do, not just the administration, is get behind some legislation that my friend, Mr. McKinley, is sponsoring. Two things, in particular. One, a lot of folks who have paid into their health care and the retirement benefits are in jeopardy of having them be lost, and Mr. McKinley and others have legislation that would protect that. And I strongly support it, and I hope a lot of my colleagues, whatever side of the debate they are on on the Clean Air rule, support Mr. McKinley in that.    And the second is, there is that kind of economic dislocation that my colleagues who are from coal country are acutely aware of. And it's amazing to meet those coal miners, and I saw Mr. McKinley in his heartfelt relationship with them in real world understanding. One very vivid example, we were there on Friday. Friday night the big custom down there is to go to the high school football games. They used to have--in this region they used to have eight high schools, now they have three. So, it's really, really tough.    So, I'm a supporter. I think that climate change is a real issue, and some of my colleagues disagree. But there in my view can't be any disagreement about the reality that there is dislocation. These are good people, and somehow, some way we've got to help them, and Mr. McKinley has two ways to do it.    But it also suggests to me that to the extent that you in doing your job at EPA can also have some flexibility, I think it's worthy of as much consideration as possible because while we have to make this transition, in my view, we also have to mitigate the real world consequences of what's happening.    So, I appreciate you being here, I appreciate the work that you're doing. I say to my colleagues that this is not just an EPA issue, because whatever impact is occurring because of rules, there are also market forces that are very much at work. The price of natural gas is a big factor, efficiency which is a good tool is reducing the demand in some cases from what it would be. So, this is a kind of all-of-the-above approach that we have to take.    And I just want to end by saying thank you for the work you do, but I also want to say to my colleagues from coal country that you've got some allies on our side who want to be there to help you help those extraordinary people who have kept the lights on in Vermont, kept our farms running, kept our factories operating. So, thank you.</t>
   </si>
   <si>
@@ -1210,9 +1150,6 @@
     <t>412280</t>
   </si>
   <si>
-    <t>Gregg Harper</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Harper. Thank you, Mr. Chairman. Ms. McCabe, thank you.    You know, I come from a State where we rely heavily on electric co-ops to help keep lights on. I've been in close contact with them as the Clean Power Plan has been discussed, and I would like to share just one of their concerns today, if I may.    South Mississippi Electric. One of South Mississippi Electric's biggest concerns is the drastic and unproven shift to renewables in the final version of the Clean Power Plan that would require that 21 percent of SMEs generation come from renewables by 2030. If I could put that in perspective, SME just executed a power purchase agreement for all of the output of a 52 megawatt solar facility being constructed in Lamar County, Mississippi. The capital cost associated with this one solar facility is $102 million with a 30 percent tax credit. The output of the facility will total less than 1 percent of SME's total generation in a year. Therefore, to meet the 2030 emissions rate, over 21 of these facilities would be required at a cost in excess of $2 billion. To put that further in perspective, SME currently has just over $2 billion in assets that have been accumulated over about a 50-year time frame, and under this rule it would double in a mere decade.    So my question for you is, how will people in my State be able to afford costs associated with the dramatic shift from fossil generation to renewable energy generation set forth in the Clean Power Plan?</t>
   </si>
   <si>
@@ -1279,9 +1216,6 @@
     <t>412211</t>
   </si>
   <si>
-    <t>John A. Yarmuth</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Yarmuth. Thank you very much, Mr. Chairman. Ms. McCabe, thank you for being here, and I want to thank you in advance--well, thank you initially for the responsiveness you've had both to our State officials in Kentucky, but also to me personally and our office. We certainly appreciate the goals of this plan.    Before I get to the question I have, I have to set the record straight, or at least revisit history a little bit about cap and trade, because I was here in 2009 when we passed Waxman-Markey in the House. No, it didn't pass the Senate, it didn't get 60 votes. It had a majority of Senators for it, but when Waxman-Markey was introduced, those of us who were from States where a significant majority of our power was produced by coal couldn't support the initial plan because it was going to cost our consumers a lot of money. So, a group of us led by Rick Boucher, who's the incumbent that Mr. Griffith defeated, went to our leadership and said, ``We can't support this, and you need our votes in order to do it.'' And what we were able to do was change Waxman-Markey in a way that made it very, very reasonable for our States to comply, was not going to have an undue impact on our consumers. As a matter of fact, when I surveyed our businesses and our utility company, they said it would have minimal impact. It might raise rates 15 percent over 10 years if the users did nothing else, and it would also create tens of thousands of new jobs in Kentucky. So, the reason we did that was because we didn't want to be here today, because we didn't want EPA to have a plan that might unduly impact our States.    We had no way of guaranteeing that that wouldn't happen, and we knew that because of the Supreme Court decision and so forth, the obligation of EPA was to regulate carbon emissions. So, that's where we were. We're here today because Republicans stopped Waxman-Markey. That's why we're here. So, if they have a complaint about that, they can blame themselves.    Now to my question, and this relates to the line of questioning that Mr. McKinley raised earlier. Kentucky is one of those States, as he mentioned, that in the initial plan we were supposed to reduce our emissions by 18 percent. We felt comfortable with that. We thought that was doable. In the final plan, we're up--it wasn't 41. I think we're closer to 30, but still it's a significant increase. And I understand the rationale for doing that, the way the utilities deliver power is not commensurate with a State-specific target. But what I am concerned about is that with this increase, while the projections for long-term cost-savings seem attractive, there's the possibility of short term price increases to rate payers, and certainly, if I were not in the United States Congress, I would say I'm all for the plan. I'm for clean air, I'm a tree hugger, you know. I'm fine, but I do have responsibilities to my constituents to make sure that this doesn't unduly impact them.    So, my fear is that if in our regional network, whatever that region might be, in our mix, that the way that the ultimate resolution of this, or accomplishment of this goal is something that Kentucky's utilities bear the brunt of, and that our prices rise disproportionately to those other areas in our region that are affected by this mix. So, my question is, is there any analysis, or is there any consideration in your Agency about how we would, if we're going to spread the responsibility over regions, how we might spread the increased costs so that one State doesn't have their rates go up 30, 40, 50 percent, and another State doesn't have their rates go up at all?</t>
   </si>
   <si>
@@ -1306,9 +1240,6 @@
     <t>412445</t>
   </si>
   <si>
-    <t>Billy Long</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Long. Thank you, Mr. Chairman. And, Ms. McCabe, in terms of complexity, the rules contain hundreds of pages regarding variations in State plans and emissions trading. For example, you could turn to page 65 of the proposed Federal plan/model trading rule, beginning at the top of the page EPA states, and I quote, ``In the final emissions guidelines the EPA also discussed a concern that CO&lt;INF&gt;2&lt;/INF&gt; emissions reductions would be eroded in situations where an effective EGU in a rate-based State counts the megawatt hours for measures located in a mass-based State, but the generation from that measure acts solely to serve load in the mass-based State. In that scenario, expected CO&lt;INF&gt;2&lt;/INF&gt; emissions reduction actions in the rate-based State are foregone as a result of counting the megawatt hours that resulted in CO&lt;INF&gt;2&lt;/INF&gt; emissions reductions in a mass-based State.'' Can you decipher that for me?</t>
   </si>
   <si>
@@ -1346,9 +1277,6 @@
   </si>
   <si>
     <t>400122</t>
-  </si>
-  <si>
-    <t>Eliot L. Engel</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Engel. Thank you, Mr. Chairman, and I appreciate your courtesy very much. Hello, Administrator. It's good to see you again. Last time we spoke, the Clean Power Plan was still a proposed rule, and now it's been finalized. And I really just want to applaud you for your commitment to this important issue. So, thank you.</t>
@@ -1801,11 +1729,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1827,11 +1753,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1853,11 +1777,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1877,13 +1799,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
         <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1905,11 +1825,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1929,13 +1847,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1955,13 +1871,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1983,11 +1897,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2009,11 +1921,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2035,11 +1945,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2061,11 +1969,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>27</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2087,11 +1993,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2113,11 +2017,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
         <v>27</v>
-      </c>
-      <c r="H14" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2139,11 +2041,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2165,11 +2065,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>27</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2191,11 +2089,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2217,11 +2113,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>27</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2243,11 +2137,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2269,11 +2161,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>27</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2295,11 +2185,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2321,11 +2209,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>27</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2347,11 +2233,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2373,11 +2257,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>27</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2399,11 +2281,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2425,11 +2305,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>27</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2451,11 +2329,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2477,11 +2353,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>27</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2503,11 +2377,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2529,11 +2401,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>27</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2555,11 +2425,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2581,11 +2449,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>27</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2607,11 +2473,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2633,11 +2497,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>27</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2659,11 +2521,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2685,11 +2545,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>27</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2711,11 +2569,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2737,11 +2593,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>27</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2763,11 +2617,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2789,11 +2641,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>27</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2815,11 +2665,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2841,11 +2689,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>27</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2867,11 +2713,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2893,11 +2737,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>27</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2919,11 +2761,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2945,11 +2785,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>27</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2971,11 +2809,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2997,11 +2833,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>27</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3023,11 +2857,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3049,11 +2881,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>27</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3075,11 +2905,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3101,11 +2929,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>27</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3127,11 +2953,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>27</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3153,11 +2977,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3177,13 +2999,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>72</v>
-      </c>
-      <c r="G55" t="s">
-        <v>73</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3205,11 +3025,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>27</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3229,13 +3047,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>72</v>
-      </c>
-      <c r="G57" t="s">
-        <v>73</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3257,11 +3073,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>27</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3281,13 +3095,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
+        <v>67</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
         <v>72</v>
-      </c>
-      <c r="G59" t="s">
-        <v>73</v>
-      </c>
-      <c r="H59" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3309,11 +3121,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>27</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3333,13 +3143,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>72</v>
-      </c>
-      <c r="G61" t="s">
-        <v>73</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3361,11 +3169,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>27</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3385,13 +3191,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>72</v>
-      </c>
-      <c r="G63" t="s">
-        <v>73</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3413,11 +3217,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3437,13 +3239,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3465,11 +3265,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>27</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3489,13 +3287,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3517,11 +3313,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>27</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3541,13 +3335,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3569,11 +3361,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>27</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3593,13 +3383,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3621,11 +3409,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>27</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3645,13 +3431,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3673,11 +3457,9 @@
       <c r="F74" t="s">
         <v>11</v>
       </c>
-      <c r="G74" t="s">
-        <v>27</v>
-      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3697,13 +3479,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3725,11 +3505,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3749,13 +3527,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>96</v>
-      </c>
-      <c r="G77" t="s">
-        <v>97</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3777,11 +3553,9 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>27</v>
-      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3801,13 +3575,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>96</v>
-      </c>
-      <c r="G79" t="s">
-        <v>97</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3829,11 +3601,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>27</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3853,13 +3623,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>96</v>
-      </c>
-      <c r="G81" t="s">
-        <v>97</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3881,11 +3649,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>27</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3905,13 +3671,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
+        <v>90</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
         <v>96</v>
-      </c>
-      <c r="G83" t="s">
-        <v>97</v>
-      </c>
-      <c r="H83" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3933,11 +3697,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>27</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3957,13 +3719,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>96</v>
-      </c>
-      <c r="G85" t="s">
-        <v>97</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3985,11 +3745,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>27</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4009,13 +3767,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>96</v>
-      </c>
-      <c r="G87" t="s">
-        <v>97</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4037,11 +3793,9 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>12</v>
-      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4061,13 +3815,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>109</v>
-      </c>
-      <c r="G89" t="s">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4089,11 +3841,9 @@
       <c r="F90" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s">
-        <v>27</v>
-      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4113,13 +3863,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>109</v>
-      </c>
-      <c r="G91" t="s">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4141,11 +3889,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>27</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4165,13 +3911,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>109</v>
-      </c>
-      <c r="G93" t="s">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4193,11 +3937,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>27</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4217,13 +3959,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
+        <v>102</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
         <v>109</v>
-      </c>
-      <c r="G95" t="s">
-        <v>110</v>
-      </c>
-      <c r="H95" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4245,11 +3985,9 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>27</v>
-      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4269,13 +4007,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>109</v>
-      </c>
-      <c r="G97" t="s">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4297,11 +4033,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>27</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4321,13 +4055,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>109</v>
-      </c>
-      <c r="G99" t="s">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4349,11 +4081,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>27</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4373,13 +4103,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>109</v>
-      </c>
-      <c r="G101" t="s">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4401,11 +4129,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>27</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4425,13 +4151,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>109</v>
-      </c>
-      <c r="G103" t="s">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4453,11 +4177,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>12</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4477,13 +4199,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>126</v>
-      </c>
-      <c r="G105" t="s">
-        <v>127</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4505,11 +4225,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>27</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4529,13 +4247,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>126</v>
-      </c>
-      <c r="G107" t="s">
-        <v>127</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4557,11 +4273,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>27</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4581,13 +4295,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>126</v>
-      </c>
-      <c r="G109" t="s">
-        <v>127</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4609,11 +4321,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>27</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4633,13 +4343,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>126</v>
-      </c>
-      <c r="G111" t="s">
-        <v>127</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4661,11 +4369,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>27</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4685,13 +4391,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>126</v>
-      </c>
-      <c r="G113" t="s">
+        <v>118</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
         <v>127</v>
-      </c>
-      <c r="H113" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4713,11 +4417,9 @@
       <c r="F114" t="s">
         <v>11</v>
       </c>
-      <c r="G114" t="s">
-        <v>27</v>
-      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4737,13 +4439,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>126</v>
-      </c>
-      <c r="G115" t="s">
-        <v>127</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4765,11 +4465,9 @@
       <c r="F116" t="s">
         <v>11</v>
       </c>
-      <c r="G116" t="s">
-        <v>27</v>
-      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4789,13 +4487,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>126</v>
-      </c>
-      <c r="G117" t="s">
-        <v>127</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4817,11 +4513,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>27</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4841,13 +4535,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>126</v>
-      </c>
-      <c r="G119" t="s">
-        <v>127</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4869,11 +4561,9 @@
       <c r="F120" t="s">
         <v>11</v>
       </c>
-      <c r="G120" t="s">
-        <v>27</v>
-      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4893,13 +4583,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>126</v>
-      </c>
-      <c r="G121" t="s">
-        <v>127</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4921,11 +4609,9 @@
       <c r="F122" t="s">
         <v>11</v>
       </c>
-      <c r="G122" t="s">
-        <v>27</v>
-      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4945,13 +4631,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>126</v>
-      </c>
-      <c r="G123" t="s">
-        <v>127</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4973,11 +4657,9 @@
       <c r="F124" t="s">
         <v>11</v>
       </c>
-      <c r="G124" t="s">
-        <v>27</v>
-      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4997,13 +4679,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>126</v>
-      </c>
-      <c r="G125" t="s">
-        <v>127</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5025,11 +4705,9 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>27</v>
-      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5049,13 +4727,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>126</v>
-      </c>
-      <c r="G127" t="s">
-        <v>127</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5077,11 +4753,9 @@
       <c r="F128" t="s">
         <v>11</v>
       </c>
-      <c r="G128" t="s">
-        <v>27</v>
-      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5101,13 +4775,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>126</v>
-      </c>
-      <c r="G129" t="s">
-        <v>127</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5129,11 +4801,9 @@
       <c r="F130" t="s">
         <v>11</v>
       </c>
-      <c r="G130" t="s">
-        <v>27</v>
-      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5153,13 +4823,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>126</v>
-      </c>
-      <c r="G131" t="s">
-        <v>127</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5181,11 +4849,9 @@
       <c r="F132" t="s">
         <v>11</v>
       </c>
-      <c r="G132" t="s">
-        <v>27</v>
-      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5205,13 +4871,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>126</v>
-      </c>
-      <c r="G133" t="s">
-        <v>127</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5233,11 +4897,9 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" t="s">
-        <v>27</v>
-      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5257,13 +4919,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>126</v>
-      </c>
-      <c r="G135" t="s">
-        <v>127</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5285,11 +4945,9 @@
       <c r="F136" t="s">
         <v>11</v>
       </c>
-      <c r="G136" t="s">
-        <v>12</v>
-      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5309,13 +4967,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>160</v>
-      </c>
-      <c r="G137" t="s">
-        <v>161</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5337,11 +4993,9 @@
       <c r="F138" t="s">
         <v>11</v>
       </c>
-      <c r="G138" t="s">
-        <v>27</v>
-      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5361,13 +5015,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>160</v>
-      </c>
-      <c r="G139" t="s">
-        <v>161</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5389,11 +5041,9 @@
       <c r="F140" t="s">
         <v>11</v>
       </c>
-      <c r="G140" t="s">
-        <v>27</v>
-      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5413,13 +5063,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>160</v>
-      </c>
-      <c r="G141" t="s">
-        <v>161</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5441,11 +5089,9 @@
       <c r="F142" t="s">
         <v>11</v>
       </c>
-      <c r="G142" t="s">
-        <v>27</v>
-      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5465,13 +5111,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>160</v>
-      </c>
-      <c r="G143" t="s">
-        <v>161</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5493,11 +5137,9 @@
       <c r="F144" t="s">
         <v>11</v>
       </c>
-      <c r="G144" t="s">
-        <v>27</v>
-      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5517,13 +5159,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>160</v>
-      </c>
-      <c r="G145" t="s">
-        <v>161</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5545,11 +5185,9 @@
       <c r="F146" t="s">
         <v>11</v>
       </c>
-      <c r="G146" t="s">
-        <v>27</v>
-      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5569,13 +5207,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>160</v>
-      </c>
-      <c r="G147" t="s">
+        <v>151</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
         <v>161</v>
-      </c>
-      <c r="H147" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5597,11 +5233,9 @@
       <c r="F148" t="s">
         <v>11</v>
       </c>
-      <c r="G148" t="s">
-        <v>12</v>
-      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5621,13 +5255,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>23</v>
-      </c>
-      <c r="G149" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5649,11 +5281,9 @@
       <c r="F150" t="s">
         <v>11</v>
       </c>
-      <c r="G150" t="s">
-        <v>27</v>
-      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5673,13 +5303,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>23</v>
-      </c>
-      <c r="G151" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5701,11 +5329,9 @@
       <c r="F152" t="s">
         <v>11</v>
       </c>
-      <c r="G152" t="s">
-        <v>27</v>
-      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5725,13 +5351,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>23</v>
-      </c>
-      <c r="G153" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5753,11 +5377,9 @@
       <c r="F154" t="s">
         <v>11</v>
       </c>
-      <c r="G154" t="s">
-        <v>27</v>
-      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5777,13 +5399,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>23</v>
-      </c>
-      <c r="G155" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5805,11 +5425,9 @@
       <c r="F156" t="s">
         <v>11</v>
       </c>
-      <c r="G156" t="s">
-        <v>27</v>
-      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5829,13 +5447,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>23</v>
-      </c>
-      <c r="G157" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5857,11 +5473,9 @@
       <c r="F158" t="s">
         <v>11</v>
       </c>
-      <c r="G158" t="s">
-        <v>27</v>
-      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5881,13 +5495,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>23</v>
-      </c>
-      <c r="G159" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5909,11 +5521,9 @@
       <c r="F160" t="s">
         <v>11</v>
       </c>
-      <c r="G160" t="s">
-        <v>12</v>
-      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5933,13 +5543,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>185</v>
-      </c>
-      <c r="G161" t="s">
-        <v>186</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5961,11 +5569,9 @@
       <c r="F162" t="s">
         <v>11</v>
       </c>
-      <c r="G162" t="s">
-        <v>27</v>
-      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5985,13 +5591,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>185</v>
-      </c>
-      <c r="G163" t="s">
-        <v>186</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6013,11 +5617,9 @@
       <c r="F164" t="s">
         <v>11</v>
       </c>
-      <c r="G164" t="s">
-        <v>27</v>
-      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6037,13 +5639,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>185</v>
-      </c>
-      <c r="G165" t="s">
-        <v>186</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6065,11 +5665,9 @@
       <c r="F166" t="s">
         <v>11</v>
       </c>
-      <c r="G166" t="s">
-        <v>27</v>
-      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6089,13 +5687,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>185</v>
-      </c>
-      <c r="G167" t="s">
-        <v>186</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6117,11 +5713,9 @@
       <c r="F168" t="s">
         <v>11</v>
       </c>
-      <c r="G168" t="s">
-        <v>27</v>
-      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6141,13 +5735,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>185</v>
-      </c>
-      <c r="G169" t="s">
-        <v>186</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6169,11 +5761,9 @@
       <c r="F170" t="s">
         <v>11</v>
       </c>
-      <c r="G170" t="s">
-        <v>27</v>
-      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6193,13 +5783,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>185</v>
-      </c>
-      <c r="G171" t="s">
-        <v>186</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6221,11 +5809,9 @@
       <c r="F172" t="s">
         <v>11</v>
       </c>
-      <c r="G172" t="s">
-        <v>27</v>
-      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6245,13 +5831,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>185</v>
-      </c>
-      <c r="G173" t="s">
+        <v>175</v>
+      </c>
+      <c r="G173" t="s"/>
+      <c r="H173" t="s">
         <v>186</v>
-      </c>
-      <c r="H173" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6273,11 +5857,9 @@
       <c r="F174" t="s">
         <v>11</v>
       </c>
-      <c r="G174" t="s">
-        <v>27</v>
-      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6297,13 +5879,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>185</v>
-      </c>
-      <c r="G175" t="s">
-        <v>186</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6325,11 +5905,9 @@
       <c r="F176" t="s">
         <v>11</v>
       </c>
-      <c r="G176" t="s">
-        <v>27</v>
-      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6349,13 +5927,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>185</v>
-      </c>
-      <c r="G177" t="s">
-        <v>186</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6377,11 +5953,9 @@
       <c r="F178" t="s">
         <v>11</v>
       </c>
-      <c r="G178" t="s">
-        <v>27</v>
-      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6401,13 +5975,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>185</v>
-      </c>
-      <c r="G179" t="s">
-        <v>186</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6429,11 +6001,9 @@
       <c r="F180" t="s">
         <v>11</v>
       </c>
-      <c r="G180" t="s">
-        <v>27</v>
-      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6453,13 +6023,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>185</v>
-      </c>
-      <c r="G181" t="s">
-        <v>186</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6481,11 +6049,9 @@
       <c r="F182" t="s">
         <v>11</v>
       </c>
-      <c r="G182" t="s">
-        <v>27</v>
-      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6505,13 +6071,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>185</v>
-      </c>
-      <c r="G183" t="s">
-        <v>186</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6533,11 +6097,9 @@
       <c r="F184" t="s">
         <v>11</v>
       </c>
-      <c r="G184" t="s">
-        <v>12</v>
-      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6557,13 +6119,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>185</v>
-      </c>
-      <c r="G185" t="s">
-        <v>186</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6585,11 +6145,9 @@
       <c r="F186" t="s">
         <v>11</v>
       </c>
-      <c r="G186" t="s">
-        <v>12</v>
-      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6609,13 +6167,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>209</v>
-      </c>
-      <c r="G187" t="s">
-        <v>210</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6637,11 +6193,9 @@
       <c r="F188" t="s">
         <v>11</v>
       </c>
-      <c r="G188" t="s">
-        <v>27</v>
-      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6661,13 +6215,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>209</v>
-      </c>
-      <c r="G189" t="s">
-        <v>210</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6689,11 +6241,9 @@
       <c r="F190" t="s">
         <v>11</v>
       </c>
-      <c r="G190" t="s">
-        <v>27</v>
-      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6713,13 +6263,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>209</v>
-      </c>
-      <c r="G191" t="s">
-        <v>210</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6741,11 +6289,9 @@
       <c r="F192" t="s">
         <v>11</v>
       </c>
-      <c r="G192" t="s">
-        <v>27</v>
-      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6765,13 +6311,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>209</v>
-      </c>
-      <c r="G193" t="s">
-        <v>210</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6793,11 +6337,9 @@
       <c r="F194" t="s">
         <v>11</v>
       </c>
-      <c r="G194" t="s">
-        <v>27</v>
-      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6817,13 +6359,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>209</v>
-      </c>
-      <c r="G195" t="s">
-        <v>210</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6845,11 +6385,9 @@
       <c r="F196" t="s">
         <v>11</v>
       </c>
-      <c r="G196" t="s">
-        <v>27</v>
-      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6869,13 +6407,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
+        <v>198</v>
+      </c>
+      <c r="G197" t="s"/>
+      <c r="H197" t="s">
         <v>209</v>
-      </c>
-      <c r="G197" t="s">
-        <v>210</v>
-      </c>
-      <c r="H197" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6897,11 +6433,9 @@
       <c r="F198" t="s">
         <v>11</v>
       </c>
-      <c r="G198" t="s">
-        <v>27</v>
-      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6921,13 +6455,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>209</v>
-      </c>
-      <c r="G199" t="s">
-        <v>210</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6949,11 +6481,9 @@
       <c r="F200" t="s">
         <v>11</v>
       </c>
-      <c r="G200" t="s">
-        <v>27</v>
-      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6973,13 +6503,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>209</v>
-      </c>
-      <c r="G201" t="s">
-        <v>210</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7001,11 +6529,9 @@
       <c r="F202" t="s">
         <v>11</v>
       </c>
-      <c r="G202" t="s">
-        <v>27</v>
-      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7025,13 +6551,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>209</v>
-      </c>
-      <c r="G203" t="s">
-        <v>210</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7053,11 +6577,9 @@
       <c r="F204" t="s">
         <v>11</v>
       </c>
-      <c r="G204" t="s">
-        <v>27</v>
-      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7077,13 +6599,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>209</v>
-      </c>
-      <c r="G205" t="s">
-        <v>210</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7105,11 +6625,9 @@
       <c r="F206" t="s">
         <v>11</v>
       </c>
-      <c r="G206" t="s">
-        <v>27</v>
-      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7129,13 +6647,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>209</v>
-      </c>
-      <c r="G207" t="s">
-        <v>210</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7157,11 +6673,9 @@
       <c r="F208" t="s">
         <v>11</v>
       </c>
-      <c r="G208" t="s">
-        <v>27</v>
-      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7181,13 +6695,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>209</v>
-      </c>
-      <c r="G209" t="s">
-        <v>210</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7209,11 +6721,9 @@
       <c r="F210" t="s">
         <v>11</v>
       </c>
-      <c r="G210" t="s">
-        <v>27</v>
-      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7233,13 +6743,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>209</v>
-      </c>
-      <c r="G211" t="s">
-        <v>210</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7261,11 +6769,9 @@
       <c r="F212" t="s">
         <v>11</v>
       </c>
-      <c r="G212" t="s">
-        <v>27</v>
-      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7285,13 +6791,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>209</v>
-      </c>
-      <c r="G213" t="s">
-        <v>210</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7313,11 +6817,9 @@
       <c r="F214" t="s">
         <v>11</v>
       </c>
-      <c r="G214" t="s">
-        <v>27</v>
-      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7337,13 +6839,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>209</v>
-      </c>
-      <c r="G215" t="s">
-        <v>210</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7365,11 +6865,9 @@
       <c r="F216" t="s">
         <v>11</v>
       </c>
-      <c r="G216" t="s">
-        <v>12</v>
-      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7389,13 +6887,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>241</v>
-      </c>
-      <c r="G217" t="s">
-        <v>242</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7417,11 +6913,9 @@
       <c r="F218" t="s">
         <v>11</v>
       </c>
-      <c r="G218" t="s">
-        <v>27</v>
-      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7441,13 +6935,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>241</v>
-      </c>
-      <c r="G219" t="s">
-        <v>242</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7469,11 +6961,9 @@
       <c r="F220" t="s">
         <v>11</v>
       </c>
-      <c r="G220" t="s">
-        <v>27</v>
-      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7493,13 +6983,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>241</v>
-      </c>
-      <c r="G221" t="s">
-        <v>242</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7521,11 +7009,9 @@
       <c r="F222" t="s">
         <v>11</v>
       </c>
-      <c r="G222" t="s">
-        <v>12</v>
-      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7545,13 +7031,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>249</v>
-      </c>
-      <c r="G223" t="s">
-        <v>250</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7573,11 +7057,9 @@
       <c r="F224" t="s">
         <v>11</v>
       </c>
-      <c r="G224" t="s">
-        <v>27</v>
-      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7597,13 +7079,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>249</v>
-      </c>
-      <c r="G225" t="s">
-        <v>250</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7625,11 +7105,9 @@
       <c r="F226" t="s">
         <v>11</v>
       </c>
-      <c r="G226" t="s">
-        <v>27</v>
-      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7649,13 +7127,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>249</v>
-      </c>
-      <c r="G227" t="s">
-        <v>250</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7677,11 +7153,9 @@
       <c r="F228" t="s">
         <v>11</v>
       </c>
-      <c r="G228" t="s">
-        <v>27</v>
-      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7701,13 +7175,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>249</v>
-      </c>
-      <c r="G229" t="s">
-        <v>250</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7729,11 +7201,9 @@
       <c r="F230" t="s">
         <v>11</v>
       </c>
-      <c r="G230" t="s">
-        <v>27</v>
-      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7753,13 +7223,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>249</v>
-      </c>
-      <c r="G231" t="s">
-        <v>250</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7781,11 +7249,9 @@
       <c r="F232" t="s">
         <v>11</v>
       </c>
-      <c r="G232" t="s">
-        <v>27</v>
-      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7805,13 +7271,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>249</v>
-      </c>
-      <c r="G233" t="s">
-        <v>250</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7833,11 +7297,9 @@
       <c r="F234" t="s">
         <v>11</v>
       </c>
-      <c r="G234" t="s">
-        <v>27</v>
-      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7857,13 +7319,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
+        <v>236</v>
+      </c>
+      <c r="G235" t="s"/>
+      <c r="H235" t="s">
         <v>249</v>
-      </c>
-      <c r="G235" t="s">
-        <v>250</v>
-      </c>
-      <c r="H235" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7885,11 +7345,9 @@
       <c r="F236" t="s">
         <v>11</v>
       </c>
-      <c r="G236" t="s">
-        <v>27</v>
-      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7909,13 +7367,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>249</v>
-      </c>
-      <c r="G237" t="s">
-        <v>250</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7937,11 +7393,9 @@
       <c r="F238" t="s">
         <v>11</v>
       </c>
-      <c r="G238" t="s">
-        <v>27</v>
-      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7961,13 +7415,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>249</v>
-      </c>
-      <c r="G239" t="s">
-        <v>250</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7989,11 +7441,9 @@
       <c r="F240" t="s">
         <v>11</v>
       </c>
-      <c r="G240" t="s">
-        <v>27</v>
-      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8013,13 +7463,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>249</v>
-      </c>
-      <c r="G241" t="s">
-        <v>250</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8041,11 +7489,9 @@
       <c r="F242" t="s">
         <v>11</v>
       </c>
-      <c r="G242" t="s">
-        <v>27</v>
-      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8065,13 +7511,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>249</v>
-      </c>
-      <c r="G243" t="s">
-        <v>250</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8093,11 +7537,9 @@
       <c r="F244" t="s">
         <v>11</v>
       </c>
-      <c r="G244" t="s">
-        <v>27</v>
-      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8117,13 +7559,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>249</v>
-      </c>
-      <c r="G245" t="s">
-        <v>250</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8145,11 +7585,9 @@
       <c r="F246" t="s">
         <v>11</v>
       </c>
-      <c r="G246" t="s">
-        <v>27</v>
-      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8169,13 +7607,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>249</v>
-      </c>
-      <c r="G247" t="s">
-        <v>250</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8195,13 +7631,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>249</v>
-      </c>
-      <c r="G248" t="s">
-        <v>250</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8223,11 +7657,9 @@
       <c r="F249" t="s">
         <v>11</v>
       </c>
-      <c r="G249" t="s">
-        <v>27</v>
-      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8247,13 +7679,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>249</v>
-      </c>
-      <c r="G250" t="s">
-        <v>250</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8275,11 +7705,9 @@
       <c r="F251" t="s">
         <v>11</v>
       </c>
-      <c r="G251" t="s">
-        <v>27</v>
-      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8299,13 +7727,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>249</v>
-      </c>
-      <c r="G252" t="s">
-        <v>250</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8327,11 +7753,9 @@
       <c r="F253" t="s">
         <v>11</v>
       </c>
-      <c r="G253" t="s">
-        <v>27</v>
-      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8351,13 +7775,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>249</v>
-      </c>
-      <c r="G254" t="s">
-        <v>250</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8379,11 +7801,9 @@
       <c r="F255" t="s">
         <v>11</v>
       </c>
-      <c r="G255" t="s">
-        <v>12</v>
-      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8403,13 +7823,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>284</v>
-      </c>
-      <c r="G256" t="s">
-        <v>285</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8431,11 +7849,9 @@
       <c r="F257" t="s">
         <v>11</v>
       </c>
-      <c r="G257" t="s">
-        <v>27</v>
-      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8455,13 +7871,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>284</v>
-      </c>
-      <c r="G258" t="s">
-        <v>285</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8483,11 +7897,9 @@
       <c r="F259" t="s">
         <v>11</v>
       </c>
-      <c r="G259" t="s">
-        <v>27</v>
-      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8507,13 +7919,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>284</v>
-      </c>
-      <c r="G260" t="s">
-        <v>285</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8535,11 +7945,9 @@
       <c r="F261" t="s">
         <v>11</v>
       </c>
-      <c r="G261" t="s">
-        <v>27</v>
-      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8559,13 +7967,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>284</v>
-      </c>
-      <c r="G262" t="s">
-        <v>285</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8587,11 +7993,9 @@
       <c r="F263" t="s">
         <v>11</v>
       </c>
-      <c r="G263" t="s">
-        <v>27</v>
-      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8611,13 +8015,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>284</v>
-      </c>
-      <c r="G264" t="s">
-        <v>285</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8639,11 +8041,9 @@
       <c r="F265" t="s">
         <v>11</v>
       </c>
-      <c r="G265" t="s">
-        <v>27</v>
-      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8663,13 +8063,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>284</v>
-      </c>
-      <c r="G266" t="s">
-        <v>285</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8691,11 +8089,9 @@
       <c r="F267" t="s">
         <v>11</v>
       </c>
-      <c r="G267" t="s">
-        <v>12</v>
-      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8715,13 +8111,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>20</v>
-      </c>
-      <c r="G268" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8743,11 +8137,9 @@
       <c r="F269" t="s">
         <v>11</v>
       </c>
-      <c r="G269" t="s">
-        <v>27</v>
-      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8767,13 +8159,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>20</v>
-      </c>
-      <c r="G270" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8795,11 +8185,9 @@
       <c r="F271" t="s">
         <v>11</v>
       </c>
-      <c r="G271" t="s">
-        <v>27</v>
-      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8819,13 +8207,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>20</v>
-      </c>
-      <c r="G272" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8847,11 +8233,9 @@
       <c r="F273" t="s">
         <v>11</v>
       </c>
-      <c r="G273" t="s">
-        <v>27</v>
-      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8871,13 +8255,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>20</v>
-      </c>
-      <c r="G274" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8899,11 +8281,9 @@
       <c r="F275" t="s">
         <v>11</v>
       </c>
-      <c r="G275" t="s">
-        <v>27</v>
-      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8923,13 +8303,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>20</v>
-      </c>
-      <c r="G276" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8951,11 +8329,9 @@
       <c r="F277" t="s">
         <v>11</v>
       </c>
-      <c r="G277" t="s">
-        <v>27</v>
-      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8975,13 +8351,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>20</v>
-      </c>
-      <c r="G278" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9003,11 +8377,9 @@
       <c r="F279" t="s">
         <v>11</v>
       </c>
-      <c r="G279" t="s">
-        <v>12</v>
-      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9027,13 +8399,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>309</v>
-      </c>
-      <c r="G280" t="s">
-        <v>310</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9055,11 +8425,9 @@
       <c r="F281" t="s">
         <v>11</v>
       </c>
-      <c r="G281" t="s">
-        <v>12</v>
-      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9079,13 +8447,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>309</v>
-      </c>
-      <c r="G282" t="s">
-        <v>310</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9107,11 +8473,9 @@
       <c r="F283" t="s">
         <v>11</v>
       </c>
-      <c r="G283" t="s">
-        <v>27</v>
-      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9131,13 +8495,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>309</v>
-      </c>
-      <c r="G284" t="s">
-        <v>310</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9159,11 +8521,9 @@
       <c r="F285" t="s">
         <v>11</v>
       </c>
-      <c r="G285" t="s">
-        <v>27</v>
-      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9183,13 +8543,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>309</v>
-      </c>
-      <c r="G286" t="s">
-        <v>310</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9211,11 +8569,9 @@
       <c r="F287" t="s">
         <v>11</v>
       </c>
-      <c r="G287" t="s">
-        <v>27</v>
-      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9235,13 +8591,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>309</v>
-      </c>
-      <c r="G288" t="s">
-        <v>310</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9263,11 +8617,9 @@
       <c r="F289" t="s">
         <v>11</v>
       </c>
-      <c r="G289" t="s">
-        <v>27</v>
-      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9287,13 +8639,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>309</v>
-      </c>
-      <c r="G290" t="s">
-        <v>310</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9315,11 +8665,9 @@
       <c r="F291" t="s">
         <v>11</v>
       </c>
-      <c r="G291" t="s">
-        <v>27</v>
-      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9339,13 +8687,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>309</v>
-      </c>
-      <c r="G292" t="s">
-        <v>310</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9367,11 +8713,9 @@
       <c r="F293" t="s">
         <v>11</v>
       </c>
-      <c r="G293" t="s">
-        <v>27</v>
-      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9391,13 +8735,11 @@
         <v>10</v>
       </c>
       <c r="F294" t="s">
+        <v>294</v>
+      </c>
+      <c r="G294" t="s"/>
+      <c r="H294" t="s">
         <v>309</v>
-      </c>
-      <c r="G294" t="s">
-        <v>310</v>
-      </c>
-      <c r="H294" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9419,11 +8761,9 @@
       <c r="F295" t="s">
         <v>11</v>
       </c>
-      <c r="G295" t="s">
-        <v>27</v>
-      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9443,13 +8783,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>309</v>
-      </c>
-      <c r="G296" t="s">
-        <v>310</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9471,11 +8809,9 @@
       <c r="F297" t="s">
         <v>11</v>
       </c>
-      <c r="G297" t="s">
-        <v>12</v>
-      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9495,13 +8831,11 @@
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>329</v>
-      </c>
-      <c r="G298" t="s">
-        <v>330</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9523,11 +8857,9 @@
       <c r="F299" t="s">
         <v>11</v>
       </c>
-      <c r="G299" t="s">
-        <v>27</v>
-      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9547,13 +8879,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>329</v>
-      </c>
-      <c r="G300" t="s">
-        <v>330</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9575,11 +8905,9 @@
       <c r="F301" t="s">
         <v>11</v>
       </c>
-      <c r="G301" t="s">
-        <v>27</v>
-      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9599,13 +8927,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>329</v>
-      </c>
-      <c r="G302" t="s">
-        <v>330</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9627,11 +8953,9 @@
       <c r="F303" t="s">
         <v>11</v>
       </c>
-      <c r="G303" t="s">
-        <v>27</v>
-      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9651,13 +8975,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>329</v>
-      </c>
-      <c r="G304" t="s">
-        <v>330</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9679,11 +9001,9 @@
       <c r="F305" t="s">
         <v>11</v>
       </c>
-      <c r="G305" t="s">
-        <v>27</v>
-      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9703,13 +9023,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>329</v>
-      </c>
-      <c r="G306" t="s">
-        <v>330</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9731,11 +9049,9 @@
       <c r="F307" t="s">
         <v>11</v>
       </c>
-      <c r="G307" t="s">
-        <v>27</v>
-      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9755,13 +9071,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>329</v>
-      </c>
-      <c r="G308" t="s">
-        <v>330</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9783,11 +9097,9 @@
       <c r="F309" t="s">
         <v>11</v>
       </c>
-      <c r="G309" t="s">
-        <v>27</v>
-      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9807,13 +9119,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>329</v>
-      </c>
-      <c r="G310" t="s">
-        <v>330</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9835,11 +9145,9 @@
       <c r="F311" t="s">
         <v>11</v>
       </c>
-      <c r="G311" t="s">
-        <v>27</v>
-      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9859,13 +9167,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>329</v>
-      </c>
-      <c r="G312" t="s">
-        <v>330</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9887,11 +9193,9 @@
       <c r="F313" t="s">
         <v>11</v>
       </c>
-      <c r="G313" t="s">
-        <v>27</v>
-      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9911,13 +9215,11 @@
         <v>10</v>
       </c>
       <c r="F314" t="s">
-        <v>329</v>
-      </c>
-      <c r="G314" t="s">
+        <v>313</v>
+      </c>
+      <c r="G314" t="s"/>
+      <c r="H314" t="s">
         <v>330</v>
-      </c>
-      <c r="H314" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9939,11 +9241,9 @@
       <c r="F315" t="s">
         <v>11</v>
       </c>
-      <c r="G315" t="s">
-        <v>27</v>
-      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9963,13 +9263,11 @@
         <v>10</v>
       </c>
       <c r="F316" t="s">
-        <v>329</v>
-      </c>
-      <c r="G316" t="s">
-        <v>330</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9991,11 +9289,9 @@
       <c r="F317" t="s">
         <v>11</v>
       </c>
-      <c r="G317" t="s">
-        <v>27</v>
-      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10015,13 +9311,11 @@
         <v>10</v>
       </c>
       <c r="F318" t="s">
-        <v>329</v>
-      </c>
-      <c r="G318" t="s">
-        <v>330</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10043,11 +9337,9 @@
       <c r="F319" t="s">
         <v>11</v>
       </c>
-      <c r="G319" t="s">
-        <v>27</v>
-      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10067,13 +9359,11 @@
         <v>10</v>
       </c>
       <c r="F320" t="s">
-        <v>329</v>
-      </c>
-      <c r="G320" t="s">
-        <v>330</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10095,11 +9385,9 @@
       <c r="F321" t="s">
         <v>11</v>
       </c>
-      <c r="G321" t="s">
-        <v>27</v>
-      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10119,13 +9407,11 @@
         <v>10</v>
       </c>
       <c r="F322" t="s">
-        <v>329</v>
-      </c>
-      <c r="G322" t="s">
-        <v>330</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10147,11 +9433,9 @@
       <c r="F323" t="s">
         <v>11</v>
       </c>
-      <c r="G323" t="s">
-        <v>27</v>
-      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10171,13 +9455,11 @@
         <v>10</v>
       </c>
       <c r="F324" t="s">
-        <v>329</v>
-      </c>
-      <c r="G324" t="s">
-        <v>330</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10199,11 +9481,9 @@
       <c r="F325" t="s">
         <v>11</v>
       </c>
-      <c r="G325" t="s">
-        <v>27</v>
-      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10223,13 +9503,11 @@
         <v>10</v>
       </c>
       <c r="F326" t="s">
-        <v>329</v>
-      </c>
-      <c r="G326" t="s">
-        <v>330</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10251,11 +9529,9 @@
       <c r="F327" t="s">
         <v>11</v>
       </c>
-      <c r="G327" t="s">
-        <v>27</v>
-      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10275,13 +9551,11 @@
         <v>10</v>
       </c>
       <c r="F328" t="s">
-        <v>329</v>
-      </c>
-      <c r="G328" t="s">
-        <v>330</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10303,11 +9577,9 @@
       <c r="F329" t="s">
         <v>11</v>
       </c>
-      <c r="G329" t="s">
-        <v>27</v>
-      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10327,13 +9599,11 @@
         <v>10</v>
       </c>
       <c r="F330" t="s">
-        <v>329</v>
-      </c>
-      <c r="G330" t="s">
-        <v>330</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10355,11 +9625,9 @@
       <c r="F331" t="s">
         <v>11</v>
       </c>
-      <c r="G331" t="s">
-        <v>27</v>
-      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10379,13 +9647,11 @@
         <v>10</v>
       </c>
       <c r="F332" t="s">
-        <v>329</v>
-      </c>
-      <c r="G332" t="s">
-        <v>330</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10407,11 +9673,9 @@
       <c r="F333" t="s">
         <v>11</v>
       </c>
-      <c r="G333" t="s">
-        <v>12</v>
-      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10431,13 +9695,11 @@
         <v>10</v>
       </c>
       <c r="F334" t="s">
-        <v>366</v>
-      </c>
-      <c r="G334" t="s">
-        <v>367</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10459,11 +9721,9 @@
       <c r="F335" t="s">
         <v>11</v>
       </c>
-      <c r="G335" t="s">
-        <v>27</v>
-      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10483,13 +9743,11 @@
         <v>10</v>
       </c>
       <c r="F336" t="s">
-        <v>366</v>
-      </c>
-      <c r="G336" t="s">
-        <v>367</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="G336" t="s"/>
       <c r="H336" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10511,11 +9769,9 @@
       <c r="F337" t="s">
         <v>11</v>
       </c>
-      <c r="G337" t="s">
-        <v>27</v>
-      </c>
+      <c r="G337" t="s"/>
       <c r="H337" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10535,13 +9791,11 @@
         <v>10</v>
       </c>
       <c r="F338" t="s">
-        <v>366</v>
-      </c>
-      <c r="G338" t="s">
-        <v>367</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="G338" t="s"/>
       <c r="H338" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10563,11 +9817,9 @@
       <c r="F339" t="s">
         <v>11</v>
       </c>
-      <c r="G339" t="s">
-        <v>27</v>
-      </c>
+      <c r="G339" t="s"/>
       <c r="H339" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10587,13 +9839,11 @@
         <v>10</v>
       </c>
       <c r="F340" t="s">
-        <v>366</v>
-      </c>
-      <c r="G340" t="s">
-        <v>367</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="G340" t="s"/>
       <c r="H340" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10615,11 +9865,9 @@
       <c r="F341" t="s">
         <v>11</v>
       </c>
-      <c r="G341" t="s">
-        <v>27</v>
-      </c>
+      <c r="G341" t="s"/>
       <c r="H341" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10639,13 +9887,11 @@
         <v>10</v>
       </c>
       <c r="F342" t="s">
-        <v>366</v>
-      </c>
-      <c r="G342" t="s">
-        <v>367</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="G342" t="s"/>
       <c r="H342" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10667,11 +9913,9 @@
       <c r="F343" t="s">
         <v>11</v>
       </c>
-      <c r="G343" t="s">
-        <v>27</v>
-      </c>
+      <c r="G343" t="s"/>
       <c r="H343" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10691,13 +9935,11 @@
         <v>10</v>
       </c>
       <c r="F344" t="s">
-        <v>366</v>
-      </c>
-      <c r="G344" t="s">
-        <v>367</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="G344" t="s"/>
       <c r="H344" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10719,11 +9961,9 @@
       <c r="F345" t="s">
         <v>11</v>
       </c>
-      <c r="G345" t="s">
-        <v>27</v>
-      </c>
+      <c r="G345" t="s"/>
       <c r="H345" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10745,11 +9985,9 @@
       <c r="F346" t="s">
         <v>11</v>
       </c>
-      <c r="G346" t="s">
-        <v>12</v>
-      </c>
+      <c r="G346" t="s"/>
       <c r="H346" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10769,13 +10007,11 @@
         <v>10</v>
       </c>
       <c r="F347" t="s">
-        <v>379</v>
-      </c>
-      <c r="G347" t="s">
-        <v>380</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="G347" t="s"/>
       <c r="H347" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10797,11 +10033,9 @@
       <c r="F348" t="s">
         <v>11</v>
       </c>
-      <c r="G348" t="s">
-        <v>27</v>
-      </c>
+      <c r="G348" t="s"/>
       <c r="H348" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10821,13 +10055,11 @@
         <v>10</v>
       </c>
       <c r="F349" t="s">
-        <v>379</v>
-      </c>
-      <c r="G349" t="s">
-        <v>380</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="G349" t="s"/>
       <c r="H349" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10849,11 +10081,9 @@
       <c r="F350" t="s">
         <v>11</v>
       </c>
-      <c r="G350" t="s">
-        <v>27</v>
-      </c>
+      <c r="G350" t="s"/>
       <c r="H350" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10873,13 +10103,11 @@
         <v>10</v>
       </c>
       <c r="F351" t="s">
-        <v>379</v>
-      </c>
-      <c r="G351" t="s">
-        <v>380</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="G351" t="s"/>
       <c r="H351" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10901,11 +10129,9 @@
       <c r="F352" t="s">
         <v>11</v>
       </c>
-      <c r="G352" t="s">
-        <v>27</v>
-      </c>
+      <c r="G352" t="s"/>
       <c r="H352" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10925,13 +10151,11 @@
         <v>10</v>
       </c>
       <c r="F353" t="s">
-        <v>379</v>
-      </c>
-      <c r="G353" t="s">
-        <v>380</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="G353" t="s"/>
       <c r="H353" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -10953,11 +10177,9 @@
       <c r="F354" t="s">
         <v>11</v>
       </c>
-      <c r="G354" t="s">
-        <v>27</v>
-      </c>
+      <c r="G354" t="s"/>
       <c r="H354" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -10977,13 +10199,11 @@
         <v>10</v>
       </c>
       <c r="F355" t="s">
-        <v>379</v>
-      </c>
-      <c r="G355" t="s">
-        <v>380</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="G355" t="s"/>
       <c r="H355" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11005,11 +10225,9 @@
       <c r="F356" t="s">
         <v>11</v>
       </c>
-      <c r="G356" t="s">
-        <v>27</v>
-      </c>
+      <c r="G356" t="s"/>
       <c r="H356" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11029,13 +10247,11 @@
         <v>10</v>
       </c>
       <c r="F357" t="s">
-        <v>379</v>
-      </c>
-      <c r="G357" t="s">
-        <v>380</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="G357" t="s"/>
       <c r="H357" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11057,11 +10273,9 @@
       <c r="F358" t="s">
         <v>11</v>
       </c>
-      <c r="G358" t="s">
-        <v>12</v>
-      </c>
+      <c r="G358" t="s"/>
       <c r="H358" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11081,13 +10295,11 @@
         <v>10</v>
       </c>
       <c r="F359" t="s">
-        <v>393</v>
-      </c>
-      <c r="G359" t="s">
-        <v>394</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="G359" t="s"/>
       <c r="H359" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11109,11 +10321,9 @@
       <c r="F360" t="s">
         <v>11</v>
       </c>
-      <c r="G360" t="s">
-        <v>12</v>
-      </c>
+      <c r="G360" t="s"/>
       <c r="H360" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11133,13 +10343,11 @@
         <v>10</v>
       </c>
       <c r="F361" t="s">
-        <v>397</v>
-      </c>
-      <c r="G361" t="s">
-        <v>398</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="G361" t="s"/>
       <c r="H361" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11161,11 +10369,9 @@
       <c r="F362" t="s">
         <v>11</v>
       </c>
-      <c r="G362" t="s">
-        <v>27</v>
-      </c>
+      <c r="G362" t="s"/>
       <c r="H362" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11185,13 +10391,11 @@
         <v>10</v>
       </c>
       <c r="F363" t="s">
-        <v>397</v>
-      </c>
-      <c r="G363" t="s">
-        <v>398</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="G363" t="s"/>
       <c r="H363" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11213,11 +10417,9 @@
       <c r="F364" t="s">
         <v>11</v>
       </c>
-      <c r="G364" t="s">
-        <v>27</v>
-      </c>
+      <c r="G364" t="s"/>
       <c r="H364" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11237,13 +10439,11 @@
         <v>10</v>
       </c>
       <c r="F365" t="s">
-        <v>397</v>
-      </c>
-      <c r="G365" t="s">
-        <v>398</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="G365" t="s"/>
       <c r="H365" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11265,11 +10465,9 @@
       <c r="F366" t="s">
         <v>11</v>
       </c>
-      <c r="G366" t="s">
-        <v>27</v>
-      </c>
+      <c r="G366" t="s"/>
       <c r="H366" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11289,13 +10487,11 @@
         <v>10</v>
       </c>
       <c r="F367" t="s">
-        <v>397</v>
-      </c>
-      <c r="G367" t="s">
-        <v>398</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="G367" t="s"/>
       <c r="H367" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11317,11 +10513,9 @@
       <c r="F368" t="s">
         <v>11</v>
       </c>
-      <c r="G368" t="s">
-        <v>27</v>
-      </c>
+      <c r="G368" t="s"/>
       <c r="H368" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11341,13 +10535,11 @@
         <v>10</v>
       </c>
       <c r="F369" t="s">
-        <v>397</v>
-      </c>
-      <c r="G369" t="s">
-        <v>398</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="G369" t="s"/>
       <c r="H369" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11369,11 +10561,9 @@
       <c r="F370" t="s">
         <v>11</v>
       </c>
-      <c r="G370" t="s">
-        <v>27</v>
-      </c>
+      <c r="G370" t="s"/>
       <c r="H370" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11393,13 +10583,11 @@
         <v>10</v>
       </c>
       <c r="F371" t="s">
-        <v>397</v>
-      </c>
-      <c r="G371" t="s">
-        <v>398</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="G371" t="s"/>
       <c r="H371" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11421,11 +10609,9 @@
       <c r="F372" t="s">
         <v>11</v>
       </c>
-      <c r="G372" t="s">
-        <v>27</v>
-      </c>
+      <c r="G372" t="s"/>
       <c r="H372" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11445,13 +10631,11 @@
         <v>10</v>
       </c>
       <c r="F373" t="s">
-        <v>397</v>
-      </c>
-      <c r="G373" t="s">
-        <v>398</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="G373" t="s"/>
       <c r="H373" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11471,13 +10655,11 @@
         <v>10</v>
       </c>
       <c r="F374" t="s">
-        <v>20</v>
-      </c>
-      <c r="G374" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G374" t="s"/>
       <c r="H374" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11499,11 +10681,9 @@
       <c r="F375" t="s">
         <v>11</v>
       </c>
-      <c r="G375" t="s">
-        <v>27</v>
-      </c>
+      <c r="G375" t="s"/>
       <c r="H375" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11523,13 +10703,11 @@
         <v>10</v>
       </c>
       <c r="F376" t="s">
-        <v>20</v>
-      </c>
-      <c r="G376" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G376" t="s"/>
       <c r="H376" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11551,11 +10729,9 @@
       <c r="F377" t="s">
         <v>11</v>
       </c>
-      <c r="G377" t="s">
-        <v>27</v>
-      </c>
+      <c r="G377" t="s"/>
       <c r="H377" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11575,13 +10751,11 @@
         <v>10</v>
       </c>
       <c r="F378" t="s">
-        <v>20</v>
-      </c>
-      <c r="G378" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G378" t="s"/>
       <c r="H378" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11603,11 +10777,9 @@
       <c r="F379" t="s">
         <v>11</v>
       </c>
-      <c r="G379" t="s">
-        <v>27</v>
-      </c>
+      <c r="G379" t="s"/>
       <c r="H379" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11627,13 +10799,11 @@
         <v>10</v>
       </c>
       <c r="F380" t="s">
-        <v>20</v>
-      </c>
-      <c r="G380" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G380" t="s"/>
       <c r="H380" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -11655,11 +10825,9 @@
       <c r="F381" t="s">
         <v>11</v>
       </c>
-      <c r="G381" t="s">
-        <v>12</v>
-      </c>
+      <c r="G381" t="s"/>
       <c r="H381" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -11679,13 +10847,11 @@
         <v>10</v>
       </c>
       <c r="F382" t="s">
-        <v>420</v>
-      </c>
-      <c r="G382" t="s">
-        <v>421</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="G382" t="s"/>
       <c r="H382" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -11707,11 +10873,9 @@
       <c r="F383" t="s">
         <v>11</v>
       </c>
-      <c r="G383" t="s">
-        <v>27</v>
-      </c>
+      <c r="G383" t="s"/>
       <c r="H383" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -11731,13 +10895,11 @@
         <v>10</v>
       </c>
       <c r="F384" t="s">
-        <v>420</v>
-      </c>
-      <c r="G384" t="s">
-        <v>421</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="G384" t="s"/>
       <c r="H384" t="s">
-        <v>424</v>
+        <v>402</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -11759,11 +10921,9 @@
       <c r="F385" t="s">
         <v>11</v>
       </c>
-      <c r="G385" t="s">
-        <v>27</v>
-      </c>
+      <c r="G385" t="s"/>
       <c r="H385" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -11783,13 +10943,11 @@
         <v>10</v>
       </c>
       <c r="F386" t="s">
-        <v>420</v>
-      </c>
-      <c r="G386" t="s">
-        <v>421</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="G386" t="s"/>
       <c r="H386" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -11811,11 +10969,9 @@
       <c r="F387" t="s">
         <v>11</v>
       </c>
-      <c r="G387" t="s">
-        <v>27</v>
-      </c>
+      <c r="G387" t="s"/>
       <c r="H387" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -11837,11 +10993,9 @@
       <c r="F388" t="s">
         <v>11</v>
       </c>
-      <c r="G388" t="s">
-        <v>12</v>
-      </c>
+      <c r="G388" t="s"/>
       <c r="H388" t="s">
-        <v>428</v>
+        <v>406</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -11861,13 +11015,11 @@
         <v>10</v>
       </c>
       <c r="F389" t="s">
-        <v>429</v>
-      </c>
-      <c r="G389" t="s">
-        <v>430</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="G389" t="s"/>
       <c r="H389" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -11889,11 +11041,9 @@
       <c r="F390" t="s">
         <v>11</v>
       </c>
-      <c r="G390" t="s">
-        <v>27</v>
-      </c>
+      <c r="G390" t="s"/>
       <c r="H390" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -11913,13 +11063,11 @@
         <v>10</v>
       </c>
       <c r="F391" t="s">
-        <v>429</v>
-      </c>
-      <c r="G391" t="s">
-        <v>430</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="G391" t="s"/>
       <c r="H391" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -11941,11 +11089,9 @@
       <c r="F392" t="s">
         <v>11</v>
       </c>
-      <c r="G392" t="s">
-        <v>27</v>
-      </c>
+      <c r="G392" t="s"/>
       <c r="H392" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -11965,13 +11111,11 @@
         <v>10</v>
       </c>
       <c r="F393" t="s">
-        <v>429</v>
-      </c>
-      <c r="G393" t="s">
-        <v>430</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="G393" t="s"/>
       <c r="H393" t="s">
-        <v>435</v>
+        <v>412</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -11993,11 +11137,9 @@
       <c r="F394" t="s">
         <v>11</v>
       </c>
-      <c r="G394" t="s">
-        <v>27</v>
-      </c>
+      <c r="G394" t="s"/>
       <c r="H394" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12017,13 +11159,11 @@
         <v>10</v>
       </c>
       <c r="F395" t="s">
-        <v>429</v>
-      </c>
-      <c r="G395" t="s">
-        <v>430</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="G395" t="s"/>
       <c r="H395" t="s">
-        <v>437</v>
+        <v>414</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12045,11 +11185,9 @@
       <c r="F396" t="s">
         <v>11</v>
       </c>
-      <c r="G396" t="s">
-        <v>27</v>
-      </c>
+      <c r="G396" t="s"/>
       <c r="H396" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12069,13 +11207,11 @@
         <v>10</v>
       </c>
       <c r="F397" t="s">
-        <v>429</v>
-      </c>
-      <c r="G397" t="s">
-        <v>430</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="G397" t="s"/>
       <c r="H397" t="s">
-        <v>439</v>
+        <v>416</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12097,11 +11233,9 @@
       <c r="F398" t="s">
         <v>11</v>
       </c>
-      <c r="G398" t="s">
-        <v>27</v>
-      </c>
+      <c r="G398" t="s"/>
       <c r="H398" t="s">
-        <v>440</v>
+        <v>417</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12121,13 +11255,11 @@
         <v>10</v>
       </c>
       <c r="F399" t="s">
-        <v>429</v>
-      </c>
-      <c r="G399" t="s">
-        <v>430</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="G399" t="s"/>
       <c r="H399" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12149,11 +11281,9 @@
       <c r="F400" t="s">
         <v>11</v>
       </c>
-      <c r="G400" t="s">
-        <v>12</v>
-      </c>
+      <c r="G400" t="s"/>
       <c r="H400" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12173,13 +11303,11 @@
         <v>10</v>
       </c>
       <c r="F401" t="s">
-        <v>443</v>
-      </c>
-      <c r="G401" t="s">
-        <v>444</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="G401" t="s"/>
       <c r="H401" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12201,11 +11329,9 @@
       <c r="F402" t="s">
         <v>11</v>
       </c>
-      <c r="G402" t="s">
-        <v>27</v>
-      </c>
+      <c r="G402" t="s"/>
       <c r="H402" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12225,13 +11351,11 @@
         <v>10</v>
       </c>
       <c r="F403" t="s">
-        <v>443</v>
-      </c>
-      <c r="G403" t="s">
-        <v>444</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="G403" t="s"/>
       <c r="H403" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12253,11 +11377,9 @@
       <c r="F404" t="s">
         <v>11</v>
       </c>
-      <c r="G404" t="s">
-        <v>27</v>
-      </c>
+      <c r="G404" t="s"/>
       <c r="H404" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12277,13 +11399,11 @@
         <v>10</v>
       </c>
       <c r="F405" t="s">
-        <v>443</v>
-      </c>
-      <c r="G405" t="s">
-        <v>444</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="G405" t="s"/>
       <c r="H405" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12305,11 +11425,9 @@
       <c r="F406" t="s">
         <v>11</v>
       </c>
-      <c r="G406" t="s">
-        <v>27</v>
-      </c>
+      <c r="G406" t="s"/>
       <c r="H406" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12329,13 +11447,11 @@
         <v>10</v>
       </c>
       <c r="F407" t="s">
-        <v>443</v>
-      </c>
-      <c r="G407" t="s">
-        <v>444</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="G407" t="s"/>
       <c r="H407" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12357,11 +11473,9 @@
       <c r="F408" t="s">
         <v>11</v>
       </c>
-      <c r="G408" t="s">
-        <v>27</v>
-      </c>
+      <c r="G408" t="s"/>
       <c r="H408" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12383,11 +11497,9 @@
       <c r="F409" t="s">
         <v>11</v>
       </c>
-      <c r="G409" t="s">
-        <v>12</v>
-      </c>
+      <c r="G409" t="s"/>
       <c r="H409" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12409,11 +11521,9 @@
       <c r="F410" t="s">
         <v>11</v>
       </c>
-      <c r="G410" t="s">
-        <v>27</v>
-      </c>
+      <c r="G410" t="s"/>
       <c r="H410" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12435,11 +11545,9 @@
       <c r="F411" t="s">
         <v>11</v>
       </c>
-      <c r="G411" t="s">
-        <v>12</v>
-      </c>
+      <c r="G411" t="s"/>
       <c r="H411" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12461,11 +11569,9 @@
       <c r="F412" t="s">
         <v>11</v>
       </c>
-      <c r="G412" t="s">
-        <v>27</v>
-      </c>
+      <c r="G412" t="s"/>
       <c r="H412" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12487,11 +11593,9 @@
       <c r="F413" t="s">
         <v>11</v>
       </c>
-      <c r="G413" t="s">
-        <v>12</v>
-      </c>
+      <c r="G413" t="s"/>
       <c r="H413" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12513,11 +11617,9 @@
       <c r="F414" t="s">
         <v>11</v>
       </c>
-      <c r="G414" t="s">
-        <v>27</v>
-      </c>
+      <c r="G414" t="s"/>
       <c r="H414" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12539,11 +11641,9 @@
       <c r="F415" t="s">
         <v>11</v>
       </c>
-      <c r="G415" t="s">
-        <v>12</v>
-      </c>
+      <c r="G415" t="s"/>
       <c r="H415" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12565,11 +11665,9 @@
       <c r="F416" t="s">
         <v>11</v>
       </c>
-      <c r="G416" t="s">
-        <v>27</v>
-      </c>
+      <c r="G416" t="s"/>
       <c r="H416" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12591,11 +11689,9 @@
       <c r="F417" t="s">
         <v>11</v>
       </c>
-      <c r="G417" t="s">
-        <v>12</v>
-      </c>
+      <c r="G417" t="s"/>
       <c r="H417" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -12617,11 +11713,9 @@
       <c r="F418" t="s">
         <v>11</v>
       </c>
-      <c r="G418" t="s">
-        <v>12</v>
-      </c>
+      <c r="G418" t="s"/>
       <c r="H418" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -12643,11 +11737,9 @@
       <c r="F419" t="s">
         <v>11</v>
       </c>
-      <c r="G419" t="s">
-        <v>27</v>
-      </c>
+      <c r="G419" t="s"/>
       <c r="H419" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -12669,11 +11761,9 @@
       <c r="F420" t="s">
         <v>11</v>
       </c>
-      <c r="G420" t="s">
-        <v>12</v>
-      </c>
+      <c r="G420" t="s"/>
       <c r="H420" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -12695,11 +11785,9 @@
       <c r="F421" t="s">
         <v>11</v>
       </c>
-      <c r="G421" t="s">
-        <v>12</v>
-      </c>
+      <c r="G421" t="s"/>
       <c r="H421" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
